--- a/teaching/traditional_assets/database/data/portugal/portugal_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/portugal/portugal_bank_money_center.xlsx
@@ -591,10 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.121</v>
+        <v>0.0399</v>
+      </c>
+      <c r="E2">
+        <v>0.0384</v>
       </c>
       <c r="F2">
-        <v>0.186</v>
+        <v>0.06</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01888241740818167</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01274750638381437</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>342.3</v>
+        <v>209</v>
       </c>
       <c r="L2">
-        <v>0.1670571010248902</v>
+        <v>0.09745407068917281</v>
       </c>
       <c r="M2">
-        <v>53.1</v>
+        <v>47.03</v>
       </c>
       <c r="N2">
-        <v>0.01543784160948948</v>
+        <v>0.02064802212758485</v>
       </c>
       <c r="O2">
-        <v>0.1551270815074496</v>
+        <v>0.2250239234449761</v>
       </c>
       <c r="P2">
-        <v>53.1</v>
+        <v>43.6</v>
       </c>
       <c r="Q2">
-        <v>0.01543784160948948</v>
+        <v>0.0191421170478992</v>
       </c>
       <c r="R2">
-        <v>0.1551270815074496</v>
+        <v>0.2086124401913876</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.07293217095470975</v>
       </c>
       <c r="U2">
-        <v>915.9</v>
+        <v>865.8</v>
       </c>
       <c r="V2">
-        <v>0.2662809629026631</v>
+        <v>0.3801202967906221</v>
       </c>
       <c r="W2">
-        <v>0.0512494198320133</v>
+        <v>0.02992211659603711</v>
       </c>
       <c r="X2">
-        <v>0.1380089467581372</v>
+        <v>0.224238770787501</v>
       </c>
       <c r="Y2">
-        <v>-0.08675952692612392</v>
+        <v>-0.1943166541914639</v>
       </c>
       <c r="Z2">
-        <v>0.1092890366957104</v>
+        <v>0.1140853911544722</v>
       </c>
       <c r="AA2">
-        <v>0.00139316269295949</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06723365180606769</v>
+        <v>0.0670005838861821</v>
       </c>
       <c r="AC2">
-        <v>-0.06584048911310821</v>
+        <v>-0.0670005838861821</v>
       </c>
       <c r="AD2">
-        <v>12885</v>
+        <v>15986.5</v>
       </c>
       <c r="AE2">
-        <v>227.0496336531787</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13112.04963365318</v>
+        <v>15986.5</v>
       </c>
       <c r="AG2">
-        <v>12196.14963365318</v>
+        <v>15120.7</v>
       </c>
       <c r="AH2">
-        <v>0.7921898979176959</v>
+        <v>0.8752915539689666</v>
       </c>
       <c r="AI2">
-        <v>0.6116336769354634</v>
+        <v>0.6454185036254704</v>
       </c>
       <c r="AJ2">
-        <v>0.7800169431853226</v>
+        <v>0.8690856630494758</v>
       </c>
       <c r="AK2">
-        <v>0.594300701514403</v>
+        <v>0.6325752821774309</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>153.2104637336504</v>
-      </c>
-      <c r="AP2">
-        <v>145.0196151445087</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.121</v>
+        <v>0.0399</v>
+      </c>
+      <c r="E3">
+        <v>0.0384</v>
       </c>
       <c r="F3">
-        <v>0.186</v>
+        <v>0.06</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +731,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01888241740818167</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01274750638381437</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>342.3</v>
+        <v>209</v>
       </c>
       <c r="L3">
-        <v>0.1670571010248902</v>
+        <v>0.09745407068917281</v>
       </c>
       <c r="M3">
-        <v>53.1</v>
+        <v>47.03</v>
       </c>
       <c r="N3">
-        <v>0.01543784160948948</v>
+        <v>0.02064802212758485</v>
       </c>
       <c r="O3">
-        <v>0.1551270815074496</v>
+        <v>0.2250239234449761</v>
       </c>
       <c r="P3">
-        <v>53.1</v>
+        <v>43.6</v>
       </c>
       <c r="Q3">
-        <v>0.01543784160948948</v>
+        <v>0.0191421170478992</v>
       </c>
       <c r="R3">
-        <v>0.1551270815074496</v>
+        <v>0.2086124401913876</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.07293217095470975</v>
       </c>
       <c r="U3">
-        <v>915.9</v>
+        <v>865.8</v>
       </c>
       <c r="V3">
-        <v>0.2662809629026631</v>
+        <v>0.3801202967906221</v>
       </c>
       <c r="W3">
-        <v>0.0512494198320133</v>
+        <v>0.02992211659603711</v>
       </c>
       <c r="X3">
-        <v>0.1380089467581372</v>
+        <v>0.224238770787501</v>
       </c>
       <c r="Y3">
-        <v>-0.08675952692612392</v>
+        <v>-0.1943166541914639</v>
       </c>
       <c r="Z3">
-        <v>0.1092890366957104</v>
+        <v>0.1140853911544722</v>
       </c>
       <c r="AA3">
-        <v>0.00139316269295949</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06723365180606769</v>
+        <v>0.0670005838861821</v>
       </c>
       <c r="AC3">
-        <v>-0.06584048911310821</v>
+        <v>-0.0670005838861821</v>
       </c>
       <c r="AD3">
-        <v>12885</v>
+        <v>15986.5</v>
       </c>
       <c r="AE3">
-        <v>227.0496336531787</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13112.04963365318</v>
+        <v>15986.5</v>
       </c>
       <c r="AG3">
-        <v>12196.14963365318</v>
+        <v>15120.7</v>
       </c>
       <c r="AH3">
-        <v>0.7921898979176959</v>
+        <v>0.8752915539689666</v>
       </c>
       <c r="AI3">
-        <v>0.6116336769354634</v>
+        <v>0.6454185036254704</v>
       </c>
       <c r="AJ3">
-        <v>0.7800169431853226</v>
+        <v>0.8690856630494758</v>
       </c>
       <c r="AK3">
-        <v>0.594300701514403</v>
+        <v>0.6325752821774309</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>153.2104637336504</v>
-      </c>
-      <c r="AP3">
-        <v>145.0196151445087</v>
       </c>
     </row>
   </sheetData>
